--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp2-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp2-Acvr2b.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.445484</v>
+        <v>0.3915976666666667</v>
       </c>
       <c r="H2">
-        <v>4.336452</v>
+        <v>1.174793</v>
       </c>
       <c r="I2">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="J2">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.539665666666667</v>
+        <v>1.315861666666667</v>
       </c>
       <c r="N2">
-        <v>4.618997</v>
+        <v>3.947585</v>
       </c>
       <c r="O2">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="P2">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="Q2">
-        <v>2.225562086516</v>
+        <v>0.5152883583227779</v>
       </c>
       <c r="R2">
-        <v>20.030058778644</v>
+        <v>4.637595224905001</v>
       </c>
       <c r="S2">
-        <v>0.04596235286387656</v>
+        <v>0.007177235602246513</v>
       </c>
       <c r="T2">
-        <v>0.04596235286387656</v>
+        <v>0.007177235602246513</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.445484</v>
+        <v>0.3915976666666667</v>
       </c>
       <c r="H3">
-        <v>4.336452</v>
+        <v>1.174793</v>
       </c>
       <c r="I3">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="J3">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.358617</v>
       </c>
       <c r="O3">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="P3">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="Q3">
-        <v>2.100103711876</v>
+        <v>0.568941415697889</v>
       </c>
       <c r="R3">
-        <v>18.900933406884</v>
+        <v>5.120472741281</v>
       </c>
       <c r="S3">
-        <v>0.04337138399364429</v>
+        <v>0.00792454655414814</v>
       </c>
       <c r="T3">
-        <v>0.04337138399364429</v>
+        <v>0.00792454655414814</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.445484</v>
+        <v>0.3915976666666667</v>
       </c>
       <c r="H4">
-        <v>4.336452</v>
+        <v>1.174793</v>
       </c>
       <c r="I4">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="J4">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.317729666666666</v>
+        <v>2.009179666666667</v>
       </c>
       <c r="N4">
-        <v>3.953189</v>
+        <v>6.027539</v>
       </c>
       <c r="O4">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="P4">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="Q4">
-        <v>1.904757149491999</v>
+        <v>0.786790069380778</v>
       </c>
       <c r="R4">
-        <v>17.142814345428</v>
+        <v>7.081110624427001</v>
       </c>
       <c r="S4">
-        <v>0.03933708286790298</v>
+        <v>0.0109588691579103</v>
       </c>
       <c r="T4">
-        <v>0.03933708286790298</v>
+        <v>0.0109588691579103</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>18.876939</v>
       </c>
       <c r="I5">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="J5">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.539665666666667</v>
+        <v>1.315861666666667</v>
       </c>
       <c r="N5">
-        <v>4.618997</v>
+        <v>3.947585</v>
       </c>
       <c r="O5">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="P5">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="Q5">
-        <v>9.688058290020335</v>
+        <v>8.279813471368334</v>
       </c>
       <c r="R5">
-        <v>87.192524610183</v>
+        <v>74.518321242315</v>
       </c>
       <c r="S5">
-        <v>0.2000779741843962</v>
+        <v>0.1153260520383043</v>
       </c>
       <c r="T5">
-        <v>0.2000779741843962</v>
+        <v>0.1153260520383043</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>18.876939</v>
       </c>
       <c r="I6">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="J6">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.358617</v>
       </c>
       <c r="O6">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="P6">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="Q6">
         <v>9.141927470373666</v>
@@ -818,10 +818,10 @@
         <v>82.277347233363</v>
       </c>
       <c r="S6">
-        <v>0.1887992695396144</v>
+        <v>0.1273340766461109</v>
       </c>
       <c r="T6">
-        <v>0.1887992695396144</v>
+        <v>0.1273340766461109</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>18.876939</v>
       </c>
       <c r="I7">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="J7">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.317729666666666</v>
+        <v>2.009179666666667</v>
       </c>
       <c r="N7">
-        <v>3.953189</v>
+        <v>6.027539</v>
       </c>
       <c r="O7">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="P7">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="Q7">
-        <v>8.291567512052332</v>
+        <v>12.64238733590233</v>
       </c>
       <c r="R7">
-        <v>74.62410760847099</v>
+        <v>113.781486023121</v>
       </c>
       <c r="S7">
-        <v>0.1712376186189423</v>
+        <v>0.1760905151825506</v>
       </c>
       <c r="T7">
-        <v>0.1712376186189423</v>
+        <v>0.1760905151825506</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.496172</v>
+        <v>8.342485333333334</v>
       </c>
       <c r="H8">
-        <v>10.488516</v>
+        <v>25.027456</v>
       </c>
       <c r="I8">
-        <v>0.3112143179316233</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="J8">
-        <v>0.3112143179316232</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.539665666666667</v>
+        <v>1.315861666666667</v>
       </c>
       <c r="N8">
-        <v>4.618997</v>
+        <v>3.947585</v>
       </c>
       <c r="O8">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="P8">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="Q8">
-        <v>5.382935993161334</v>
+        <v>10.97755665486222</v>
       </c>
       <c r="R8">
-        <v>48.44642393845201</v>
+        <v>98.79800989376001</v>
       </c>
       <c r="S8">
-        <v>0.1111685021327148</v>
+        <v>0.1529017863035088</v>
       </c>
       <c r="T8">
-        <v>0.1111685021327147</v>
+        <v>0.1529017863035088</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.496172</v>
+        <v>8.342485333333334</v>
       </c>
       <c r="H9">
-        <v>10.488516</v>
+        <v>25.027456</v>
       </c>
       <c r="I9">
-        <v>0.3112143179316233</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="J9">
-        <v>0.3112143179316232</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>4.358617</v>
       </c>
       <c r="O9">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="P9">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="Q9">
-        <v>5.079491571374667</v>
+        <v>12.12056613203911</v>
       </c>
       <c r="R9">
-        <v>45.715424142372</v>
+        <v>109.085095188352</v>
       </c>
       <c r="S9">
-        <v>0.1049017618457398</v>
+        <v>0.1688222863124773</v>
       </c>
       <c r="T9">
-        <v>0.1049017618457398</v>
+        <v>0.1688222863124773</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.496172</v>
+        <v>8.342485333333334</v>
       </c>
       <c r="H10">
-        <v>10.488516</v>
+        <v>25.027456</v>
       </c>
       <c r="I10">
-        <v>0.3112143179316233</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="J10">
-        <v>0.3112143179316232</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.317729666666666</v>
+        <v>2.009179666666667</v>
       </c>
       <c r="N10">
-        <v>3.953189</v>
+        <v>6.027539</v>
       </c>
       <c r="O10">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="P10">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="Q10">
-        <v>4.607009564169332</v>
+        <v>16.76155190119822</v>
       </c>
       <c r="R10">
-        <v>41.463086077524</v>
+        <v>150.853967110784</v>
       </c>
       <c r="S10">
-        <v>0.09514405395316872</v>
+        <v>0.233464632202743</v>
       </c>
       <c r="T10">
-        <v>0.0951440539531687</v>
+        <v>0.233464632202743</v>
       </c>
     </row>
   </sheetData>
